--- a/原创-办公安全/办公安全.xlsx
+++ b/原创-办公安全/办公安全.xlsx
@@ -4,24 +4,63 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
   </bookViews>
   <sheets>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
-    <sheet name="安全评估及检查" sheetId="1" r:id="rId2"/>
-    <sheet name="安全培训" sheetId="13" r:id="rId3"/>
-    <sheet name="安全加固与保护" sheetId="4" r:id="rId4"/>
-    <sheet name="感知审计监控" sheetId="5" r:id="rId5"/>
-    <sheet name="规章制度编写与发布" sheetId="2" r:id="rId6"/>
-    <sheet name="安全运营与管理" sheetId="3" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId1"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId2"/>
+    <sheet name="安全评估及检查" sheetId="1" r:id="rId3"/>
+    <sheet name="安全培训" sheetId="13" r:id="rId4"/>
+    <sheet name="安全加固与保护" sheetId="4" r:id="rId5"/>
+    <sheet name="感知审计监控" sheetId="5" r:id="rId6"/>
+    <sheet name="规章制度编写与发布" sheetId="2" r:id="rId7"/>
+    <sheet name="安全运营与管理" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="237">
+  <si>
+    <t>伪IAM</t>
+  </si>
+  <si>
+    <t>建设通用的账号申请流程，在流程中记录 员工-系统-权限 到数据库。离职时统一调取销号。</t>
+  </si>
+  <si>
+    <t>无公共账号</t>
+  </si>
+  <si>
+    <t>无归属人账号相关工作应建设自动化的有审批的工作流进行处理</t>
+  </si>
+  <si>
+    <t>各系统的最高管理员账号应由部门领导负责，不应交给其他人</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>弱口令、公共账号</t>
+  </si>
+  <si>
+    <t>管理员设置密码规则</t>
+  </si>
+  <si>
+    <t>从oa获取</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>权限过大，git管理混乱、无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计、设置申请流程</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
   <si>
     <t>资产梳理</t>
   </si>
@@ -194,30 +233,6 @@
     <t>备案，隔离划分</t>
   </si>
   <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>弱口令、公共账号</t>
-  </si>
-  <si>
-    <t>管理员设置密码规则</t>
-  </si>
-  <si>
-    <t>从oa获取</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
-    <t>权限过大，git管理混乱、无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计、设置申请流程</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
     <t>容器资产</t>
   </si>
   <si>
@@ -717,12 +732,6 @@
   </si>
   <si>
     <t>应急响应</t>
-  </si>
-  <si>
-    <t>伪IAM</t>
-  </si>
-  <si>
-    <t>建设通用的账号申请流程，在流程中记录 员工-系统-权限 到数据库。离职时统一调取销号。</t>
   </si>
 </sst>
 </file>
@@ -1736,9 +1745,84 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="42" spans="3:7">
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="70" spans="3:8">
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1758,263 +1842,263 @@
   <sheetData>
     <row r="1" ht="28" spans="2:10">
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="2:10">
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="2:7">
       <c r="B3" s="6"/>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" ht="42" spans="2:7">
       <c r="B4" s="6"/>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="28" spans="2:7">
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="28" spans="2:7">
       <c r="B7" s="6"/>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" ht="42" spans="2:7">
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" ht="28" spans="2:7">
       <c r="B10" s="6"/>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6"/>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="2:10">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="42" spans="2:10">
       <c r="B14" s="6"/>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="42" spans="2:10">
       <c r="B15" s="6"/>
       <c r="C15" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" ht="42" spans="2:7">
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="42" spans="2:10">
       <c r="B18" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="2:10">
       <c r="B19" s="6"/>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -2029,135 +2113,135 @@
     </row>
     <row r="21" ht="28" spans="2:7">
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="28" spans="2:6">
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="28" spans="2:7">
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="7:7">
       <c r="G28" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" ht="28" spans="2:6">
       <c r="B35" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="28" spans="2:5">
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" ht="28" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I57"/>
@@ -2194,91 +2278,91 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="28" spans="2:5">
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="5"/>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="5"/>
       <c r="C15" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="3:3">
@@ -2286,25 +2370,25 @@
     </row>
     <row r="17" ht="28" spans="2:5">
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="2:6">
       <c r="B18" s="5"/>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2312,10 +2396,10 @@
     <row r="19" s="3" customFormat="1" spans="2:6">
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2323,13 +2407,13 @@
     <row r="20" s="3" customFormat="1" spans="2:6">
       <c r="B20" s="5"/>
       <c r="C20" s="5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -2342,95 +2426,95 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="5"/>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="5"/>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="5"/>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" ht="126" spans="2:6">
       <c r="B26" s="5"/>
       <c r="C26" s="5" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="5"/>
       <c r="C27" s="5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" s="9" customFormat="1"/>
     <row r="30" s="9" customFormat="1"/>
     <row r="31" spans="2:4">
       <c r="B31" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" ht="28" spans="2:4">
       <c r="B33" s="5"/>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -2438,43 +2522,43 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I38" s="4"/>
     </row>
@@ -2490,22 +2574,22 @@
     </row>
     <row r="41" ht="28" spans="2:5">
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -2514,16 +2598,16 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="5"/>
       <c r="C45" s="3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="3:6">
@@ -2538,10 +2622,10 @@
     </row>
     <row r="48" s="3" customFormat="1" spans="2:6">
       <c r="B48" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2553,10 +2637,10 @@
     </row>
     <row r="50" s="3" customFormat="1" spans="2:6">
       <c r="B50" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2578,24 +2662,24 @@
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C54" s="5"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="3" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2613,7 +2697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C19"/>
@@ -2630,108 +2714,108 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E34"/>
@@ -2758,215 +2842,215 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" ht="42" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" ht="28" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2985,7 +3069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
@@ -3004,206 +3088,206 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3220,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B31"/>
@@ -3233,77 +3317,77 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B13" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="2:2">
       <c r="B15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" customFormat="1"/>
@@ -3336,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:C8"/>
@@ -3349,35 +3433,35 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3385,31 +3469,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>